--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cryst\OneDrive\デスクトップ\システム開発演習\000-要件定義\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFCD888-ECBD-4644-9AF5-1CDA5C94F596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB420C5-7AE5-4EFD-A643-35F5C935FC0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="45">
   <si>
     <t>進捗</t>
     <rPh sb="0" eb="2">
@@ -457,6 +457,16 @@
       <t>ロク</t>
     </rPh>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>要件定義（SP）</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1749,6 +1759,108 @@
     <xf numFmtId="49" fontId="2" fillId="8" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1758,6 +1870,258 @@
     <xf numFmtId="177" fontId="3" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1766,360 +2130,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2829,111 +2839,111 @@
       <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AF45" sqref="AF45"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="3" customWidth="1"/>
-    <col min="7" max="30" width="3.125" style="3" customWidth="1"/>
-    <col min="31" max="66" width="3.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" style="3" customWidth="1"/>
+    <col min="7" max="30" width="3.109375" style="3" customWidth="1"/>
+    <col min="31" max="66" width="3.109375" style="1" customWidth="1"/>
     <col min="67" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="77"/>
-      <c r="E1" s="82" t="s">
+      <c r="D1" s="105"/>
+      <c r="E1" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="85" t="s">
+      <c r="F1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="61">
+      <c r="G1" s="95">
         <v>45536</v>
       </c>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="62"/>
-      <c r="AI1" s="62"/>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="61">
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="96"/>
+      <c r="Y1" s="96"/>
+      <c r="Z1" s="96"/>
+      <c r="AA1" s="96"/>
+      <c r="AB1" s="96"/>
+      <c r="AC1" s="96"/>
+      <c r="AD1" s="96"/>
+      <c r="AE1" s="96"/>
+      <c r="AF1" s="96"/>
+      <c r="AG1" s="96"/>
+      <c r="AH1" s="96"/>
+      <c r="AI1" s="96"/>
+      <c r="AJ1" s="97"/>
+      <c r="AK1" s="95">
         <v>45566</v>
       </c>
-      <c r="AL1" s="62"/>
-      <c r="AM1" s="62"/>
-      <c r="AN1" s="62"/>
-      <c r="AO1" s="62"/>
-      <c r="AP1" s="62"/>
-      <c r="AQ1" s="62"/>
-      <c r="AR1" s="62"/>
-      <c r="AS1" s="62"/>
-      <c r="AT1" s="62"/>
-      <c r="AU1" s="62"/>
-      <c r="AV1" s="62"/>
-      <c r="AW1" s="62"/>
-      <c r="AX1" s="62"/>
-      <c r="AY1" s="62"/>
-      <c r="AZ1" s="62"/>
-      <c r="BA1" s="62"/>
-      <c r="BB1" s="62"/>
-      <c r="BC1" s="62"/>
-      <c r="BD1" s="62"/>
-      <c r="BE1" s="62"/>
-      <c r="BF1" s="62"/>
-      <c r="BG1" s="62"/>
-      <c r="BH1" s="62"/>
-      <c r="BI1" s="62"/>
-      <c r="BJ1" s="62"/>
-      <c r="BK1" s="62"/>
-      <c r="BL1" s="62"/>
-      <c r="BM1" s="62"/>
-      <c r="BN1" s="63"/>
+      <c r="AL1" s="96"/>
+      <c r="AM1" s="96"/>
+      <c r="AN1" s="96"/>
+      <c r="AO1" s="96"/>
+      <c r="AP1" s="96"/>
+      <c r="AQ1" s="96"/>
+      <c r="AR1" s="96"/>
+      <c r="AS1" s="96"/>
+      <c r="AT1" s="96"/>
+      <c r="AU1" s="96"/>
+      <c r="AV1" s="96"/>
+      <c r="AW1" s="96"/>
+      <c r="AX1" s="96"/>
+      <c r="AY1" s="96"/>
+      <c r="AZ1" s="96"/>
+      <c r="BA1" s="96"/>
+      <c r="BB1" s="96"/>
+      <c r="BC1" s="96"/>
+      <c r="BD1" s="96"/>
+      <c r="BE1" s="96"/>
+      <c r="BF1" s="96"/>
+      <c r="BG1" s="96"/>
+      <c r="BH1" s="96"/>
+      <c r="BI1" s="96"/>
+      <c r="BJ1" s="96"/>
+      <c r="BK1" s="96"/>
+      <c r="BL1" s="96"/>
+      <c r="BM1" s="96"/>
+      <c r="BN1" s="97"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="86"/>
+      <c r="A2" s="99"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="114"/>
       <c r="G2" s="46">
         <v>45537</v>
       </c>
@@ -3175,12 +3185,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="72"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="87"/>
+      <c r="A3" s="100"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="115"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -3268,10 +3278,10 @@
       <c r="AI3" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="AJ3" s="160" t="s">
+      <c r="AJ3" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="AK3" s="183" t="s">
+      <c r="AK3" s="93" t="s">
         <v>20</v>
       </c>
       <c r="AL3" s="57" t="s">
@@ -3280,19 +3290,19 @@
       <c r="AM3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="AN3" s="184" t="s">
+      <c r="AN3" s="94" t="s">
         <v>16</v>
       </c>
       <c r="AO3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="AP3" s="184" t="s">
+      <c r="AP3" s="94" t="s">
         <v>18</v>
       </c>
       <c r="AQ3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="AR3" s="184" t="s">
+      <c r="AR3" s="94" t="s">
         <v>20</v>
       </c>
       <c r="AS3" s="57" t="s">
@@ -3301,19 +3311,19 @@
       <c r="AT3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="AU3" s="184" t="s">
+      <c r="AU3" s="94" t="s">
         <v>16</v>
       </c>
       <c r="AV3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="AW3" s="184" t="s">
+      <c r="AW3" s="94" t="s">
         <v>18</v>
       </c>
       <c r="AX3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="AY3" s="184" t="s">
+      <c r="AY3" s="94" t="s">
         <v>20</v>
       </c>
       <c r="AZ3" s="57" t="s">
@@ -3322,19 +3332,19 @@
       <c r="BA3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="BB3" s="184" t="s">
+      <c r="BB3" s="94" t="s">
         <v>16</v>
       </c>
       <c r="BC3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="BD3" s="184" t="s">
+      <c r="BD3" s="94" t="s">
         <v>18</v>
       </c>
       <c r="BE3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="BF3" s="184" t="s">
+      <c r="BF3" s="94" t="s">
         <v>20</v>
       </c>
       <c r="BG3" s="57" t="s">
@@ -3343,43 +3353,43 @@
       <c r="BH3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="BI3" s="184" t="s">
+      <c r="BI3" s="94" t="s">
         <v>16</v>
       </c>
       <c r="BJ3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="BK3" s="184" t="s">
+      <c r="BK3" s="94" t="s">
         <v>18</v>
       </c>
       <c r="BL3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="BM3" s="184" t="s">
+      <c r="BM3" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="BN3" s="160" t="s">
+      <c r="BN3" s="70" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="90">
+      <c r="A4" s="126">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="92" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="93"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="98"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="133"/>
       <c r="G4" s="49"/>
-      <c r="H4" s="151"/>
-      <c r="I4" s="151"/>
-      <c r="J4" s="151"/>
-      <c r="K4" s="151"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
       <c r="L4" s="12"/>
       <c r="M4" s="18"/>
       <c r="N4" s="10"/>
@@ -3404,8 +3414,8 @@
       <c r="AG4" s="12"/>
       <c r="AH4" s="18"/>
       <c r="AI4" s="10"/>
-      <c r="AJ4" s="161"/>
-      <c r="AK4" s="172"/>
+      <c r="AJ4" s="71"/>
+      <c r="AK4" s="82"/>
       <c r="AL4" s="10"/>
       <c r="AM4" s="10"/>
       <c r="AN4" s="12"/>
@@ -3434,20 +3444,20 @@
       <c r="BK4" s="10"/>
       <c r="BL4" s="10"/>
       <c r="BM4" s="10"/>
-      <c r="BN4" s="161"/>
+      <c r="BN4" s="71"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="91"/>
+      <c r="A5" s="117"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="99"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="134"/>
       <c r="G5" s="50"/>
-      <c r="H5" s="152"/>
-      <c r="I5" s="152"/>
-      <c r="J5" s="152"/>
-      <c r="K5" s="152"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
       <c r="L5" s="16"/>
       <c r="M5" s="22"/>
       <c r="N5" s="9"/>
@@ -3472,8 +3482,8 @@
       <c r="AG5" s="16"/>
       <c r="AH5" s="22"/>
       <c r="AI5" s="9"/>
-      <c r="AJ5" s="162"/>
-      <c r="AK5" s="173"/>
+      <c r="AJ5" s="72"/>
+      <c r="AK5" s="83"/>
       <c r="AL5" s="9"/>
       <c r="AM5" s="9"/>
       <c r="AN5" s="16"/>
@@ -3502,31 +3512,31 @@
       <c r="BK5" s="9"/>
       <c r="BL5" s="9"/>
       <c r="BM5" s="9"/>
-      <c r="BN5" s="162"/>
+      <c r="BN5" s="72"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="108">
+      <c r="A6" s="116">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="109" t="s">
+      <c r="C6" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="115"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="124"/>
       <c r="G6" s="51"/>
-      <c r="H6" s="153"/>
-      <c r="I6" s="153"/>
-      <c r="J6" s="153"/>
-      <c r="K6" s="153"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
       <c r="L6" s="13"/>
       <c r="M6" s="19"/>
-      <c r="N6" s="153"/>
-      <c r="O6" s="153"/>
-      <c r="P6" s="153"/>
-      <c r="Q6" s="153"/>
-      <c r="R6" s="153"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
       <c r="S6" s="13"/>
       <c r="T6" s="19"/>
       <c r="U6" s="19"/>
@@ -3544,8 +3554,8 @@
       <c r="AG6" s="13"/>
       <c r="AH6" s="19"/>
       <c r="AI6" s="7"/>
-      <c r="AJ6" s="163"/>
-      <c r="AK6" s="174"/>
+      <c r="AJ6" s="73"/>
+      <c r="AK6" s="84"/>
       <c r="AL6" s="7"/>
       <c r="AM6" s="7"/>
       <c r="AN6" s="13"/>
@@ -3574,27 +3584,27 @@
       <c r="BK6" s="7"/>
       <c r="BL6" s="7"/>
       <c r="BM6" s="7"/>
-      <c r="BN6" s="163"/>
+      <c r="BN6" s="73"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A7" s="91"/>
+      <c r="A7" s="117"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="116"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="125"/>
       <c r="G7" s="52"/>
-      <c r="H7" s="154"/>
-      <c r="I7" s="154"/>
-      <c r="J7" s="154"/>
-      <c r="K7" s="154"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
       <c r="L7" s="25"/>
       <c r="M7" s="26"/>
-      <c r="N7" s="154"/>
-      <c r="O7" s="154"/>
-      <c r="P7" s="154"/>
-      <c r="Q7" s="154"/>
-      <c r="R7" s="154"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
       <c r="S7" s="25"/>
       <c r="T7" s="26"/>
       <c r="U7" s="26"/>
@@ -3612,8 +3622,8 @@
       <c r="AG7" s="25"/>
       <c r="AH7" s="26"/>
       <c r="AI7" s="24"/>
-      <c r="AJ7" s="164"/>
-      <c r="AK7" s="175"/>
+      <c r="AJ7" s="74"/>
+      <c r="AK7" s="85"/>
       <c r="AL7" s="24"/>
       <c r="AM7" s="24"/>
       <c r="AN7" s="25"/>
@@ -3642,33 +3652,33 @@
       <c r="BK7" s="24"/>
       <c r="BL7" s="24"/>
       <c r="BM7" s="24"/>
-      <c r="BN7" s="164"/>
+      <c r="BN7" s="74"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="117">
+      <c r="A8" s="135">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="118" t="s">
+      <c r="C8" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="119"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="124"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="143"/>
       <c r="G8" s="38"/>
-      <c r="H8" s="155"/>
-      <c r="I8" s="155"/>
-      <c r="J8" s="155"/>
-      <c r="K8" s="155"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
       <c r="L8" s="15"/>
       <c r="M8" s="21"/>
-      <c r="N8" s="153"/>
-      <c r="O8" s="155"/>
-      <c r="P8" s="155"/>
-      <c r="Q8" s="155"/>
-      <c r="R8" s="155"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="65"/>
+      <c r="R8" s="65"/>
       <c r="S8" s="15"/>
       <c r="T8" s="21"/>
       <c r="U8" s="21"/>
@@ -3686,8 +3696,8 @@
       <c r="AG8" s="15"/>
       <c r="AH8" s="21"/>
       <c r="AI8" s="6"/>
-      <c r="AJ8" s="165"/>
-      <c r="AK8" s="176"/>
+      <c r="AJ8" s="75"/>
+      <c r="AK8" s="86"/>
       <c r="AL8" s="6"/>
       <c r="AM8" s="6"/>
       <c r="AN8" s="15"/>
@@ -3716,27 +3726,27 @@
       <c r="BK8" s="6"/>
       <c r="BL8" s="6"/>
       <c r="BM8" s="6"/>
-      <c r="BN8" s="165"/>
+      <c r="BN8" s="75"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A9" s="89"/>
+      <c r="A9" s="136"/>
       <c r="B9" s="37"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="125"/>
+      <c r="C9" s="139"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="144"/>
       <c r="G9" s="53"/>
-      <c r="H9" s="156"/>
-      <c r="I9" s="156"/>
-      <c r="J9" s="156"/>
-      <c r="K9" s="156"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
       <c r="L9" s="44"/>
       <c r="M9" s="45"/>
-      <c r="N9" s="154"/>
-      <c r="O9" s="156"/>
-      <c r="P9" s="156"/>
-      <c r="Q9" s="156"/>
-      <c r="R9" s="156"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
       <c r="S9" s="44"/>
       <c r="T9" s="45"/>
       <c r="U9" s="45"/>
@@ -3754,8 +3764,8 @@
       <c r="AG9" s="44"/>
       <c r="AH9" s="45"/>
       <c r="AI9" s="43"/>
-      <c r="AJ9" s="166"/>
-      <c r="AK9" s="177"/>
+      <c r="AJ9" s="76"/>
+      <c r="AK9" s="87"/>
       <c r="AL9" s="43"/>
       <c r="AM9" s="43"/>
       <c r="AN9" s="44"/>
@@ -3784,33 +3794,33 @@
       <c r="BK9" s="43"/>
       <c r="BL9" s="43"/>
       <c r="BM9" s="43"/>
-      <c r="BN9" s="166"/>
+      <c r="BN9" s="76"/>
     </row>
     <row r="10" spans="1:66" ht="12" customHeight="1">
-      <c r="A10" s="88">
+      <c r="A10" s="145">
         <v>4</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="100" t="s">
+      <c r="C10" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="101"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="106"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="150"/>
+      <c r="F10" s="152"/>
       <c r="G10" s="50"/>
-      <c r="H10" s="152"/>
-      <c r="I10" s="152"/>
-      <c r="J10" s="152"/>
-      <c r="K10" s="152"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
       <c r="L10" s="16"/>
       <c r="M10" s="22"/>
-      <c r="N10" s="157"/>
-      <c r="O10" s="152"/>
-      <c r="P10" s="152"/>
-      <c r="Q10" s="152"/>
-      <c r="R10" s="152"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="62"/>
       <c r="S10" s="16"/>
       <c r="T10" s="22"/>
       <c r="U10" s="22"/>
@@ -3828,8 +3838,8 @@
       <c r="AG10" s="16"/>
       <c r="AH10" s="22"/>
       <c r="AI10" s="9"/>
-      <c r="AJ10" s="162"/>
-      <c r="AK10" s="173"/>
+      <c r="AJ10" s="72"/>
+      <c r="AK10" s="83"/>
       <c r="AL10" s="9"/>
       <c r="AM10" s="9"/>
       <c r="AN10" s="16"/>
@@ -3858,27 +3868,27 @@
       <c r="BK10" s="9"/>
       <c r="BL10" s="9"/>
       <c r="BM10" s="9"/>
-      <c r="BN10" s="162"/>
+      <c r="BN10" s="72"/>
     </row>
     <row r="11" spans="1:66" ht="12" customHeight="1">
-      <c r="A11" s="89"/>
+      <c r="A11" s="136"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="107"/>
+      <c r="C11" s="148"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="151"/>
+      <c r="F11" s="153"/>
       <c r="G11" s="50"/>
-      <c r="H11" s="152"/>
-      <c r="I11" s="152"/>
-      <c r="J11" s="152"/>
-      <c r="K11" s="152"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
       <c r="L11" s="16"/>
       <c r="M11" s="22"/>
-      <c r="N11" s="152"/>
-      <c r="O11" s="152"/>
-      <c r="P11" s="152"/>
-      <c r="Q11" s="152"/>
-      <c r="R11" s="152"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="62"/>
       <c r="S11" s="16"/>
       <c r="T11" s="22"/>
       <c r="U11" s="22"/>
@@ -3896,8 +3906,8 @@
       <c r="AG11" s="16"/>
       <c r="AH11" s="22"/>
       <c r="AI11" s="9"/>
-      <c r="AJ11" s="162"/>
-      <c r="AK11" s="173"/>
+      <c r="AJ11" s="72"/>
+      <c r="AK11" s="83"/>
       <c r="AL11" s="9"/>
       <c r="AM11" s="9"/>
       <c r="AN11" s="16"/>
@@ -3926,31 +3936,31 @@
       <c r="BK11" s="9"/>
       <c r="BL11" s="9"/>
       <c r="BM11" s="9"/>
-      <c r="BN11" s="162"/>
+      <c r="BN11" s="72"/>
     </row>
     <row r="12" spans="1:66" ht="12" customHeight="1">
-      <c r="A12" s="117">
+      <c r="A12" s="135">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="109" t="s">
+      <c r="C12" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="110"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="129"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="157"/>
       <c r="G12" s="51"/>
-      <c r="H12" s="153"/>
-      <c r="I12" s="153"/>
-      <c r="J12" s="153"/>
-      <c r="K12" s="153"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
       <c r="L12" s="13"/>
       <c r="M12" s="19"/>
-      <c r="N12" s="153"/>
-      <c r="O12" s="153"/>
-      <c r="P12" s="153"/>
-      <c r="Q12" s="153"/>
-      <c r="R12" s="153"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="63"/>
       <c r="S12" s="13"/>
       <c r="T12" s="19"/>
       <c r="U12" s="19"/>
@@ -3968,8 +3978,8 @@
       <c r="AG12" s="13"/>
       <c r="AH12" s="19"/>
       <c r="AI12" s="7"/>
-      <c r="AJ12" s="163"/>
-      <c r="AK12" s="174"/>
+      <c r="AJ12" s="73"/>
+      <c r="AK12" s="84"/>
       <c r="AL12" s="7"/>
       <c r="AM12" s="7"/>
       <c r="AN12" s="13"/>
@@ -3998,27 +4008,27 @@
       <c r="BK12" s="7"/>
       <c r="BL12" s="7"/>
       <c r="BM12" s="7"/>
-      <c r="BN12" s="163"/>
+      <c r="BN12" s="73"/>
     </row>
     <row r="13" spans="1:66" ht="12" customHeight="1">
-      <c r="A13" s="88"/>
+      <c r="A13" s="145"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="106"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="155"/>
+      <c r="E13" s="150"/>
+      <c r="F13" s="152"/>
       <c r="G13" s="52"/>
-      <c r="H13" s="154"/>
-      <c r="I13" s="154"/>
-      <c r="J13" s="154"/>
-      <c r="K13" s="154"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
       <c r="L13" s="25"/>
       <c r="M13" s="26"/>
-      <c r="N13" s="154"/>
-      <c r="O13" s="154"/>
-      <c r="P13" s="154"/>
-      <c r="Q13" s="154"/>
-      <c r="R13" s="154"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="64"/>
       <c r="S13" s="25"/>
       <c r="T13" s="26"/>
       <c r="U13" s="26"/>
@@ -4036,8 +4046,8 @@
       <c r="AG13" s="25"/>
       <c r="AH13" s="26"/>
       <c r="AI13" s="24"/>
-      <c r="AJ13" s="164"/>
-      <c r="AK13" s="175"/>
+      <c r="AJ13" s="74"/>
+      <c r="AK13" s="85"/>
       <c r="AL13" s="24"/>
       <c r="AM13" s="24"/>
       <c r="AN13" s="25"/>
@@ -4066,33 +4076,33 @@
       <c r="BK13" s="24"/>
       <c r="BL13" s="24"/>
       <c r="BM13" s="24"/>
-      <c r="BN13" s="164"/>
+      <c r="BN13" s="74"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="130">
+      <c r="A14" s="158">
         <v>6</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="131" t="s">
+      <c r="C14" s="159" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="132"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="124"/>
+      <c r="D14" s="160"/>
+      <c r="E14" s="161"/>
+      <c r="F14" s="143"/>
       <c r="G14" s="38"/>
-      <c r="H14" s="155"/>
-      <c r="I14" s="155"/>
-      <c r="J14" s="155"/>
-      <c r="K14" s="155"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
       <c r="L14" s="15"/>
       <c r="M14" s="21"/>
-      <c r="N14" s="155"/>
-      <c r="O14" s="155"/>
-      <c r="P14" s="155"/>
-      <c r="Q14" s="155"/>
-      <c r="R14" s="155"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="65"/>
+      <c r="Q14" s="65"/>
+      <c r="R14" s="65"/>
       <c r="S14" s="15"/>
       <c r="T14" s="21"/>
       <c r="U14" s="21"/>
@@ -4110,8 +4120,8 @@
       <c r="AG14" s="15"/>
       <c r="AH14" s="21"/>
       <c r="AI14" s="6"/>
-      <c r="AJ14" s="165"/>
-      <c r="AK14" s="176"/>
+      <c r="AJ14" s="75"/>
+      <c r="AK14" s="86"/>
       <c r="AL14" s="6"/>
       <c r="AM14" s="6"/>
       <c r="AN14" s="15"/>
@@ -4140,27 +4150,27 @@
       <c r="BK14" s="6"/>
       <c r="BL14" s="6"/>
       <c r="BM14" s="6"/>
-      <c r="BN14" s="165"/>
+      <c r="BN14" s="75"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="130"/>
+      <c r="A15" s="158"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="107"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="151"/>
+      <c r="F15" s="153"/>
       <c r="G15" s="52"/>
-      <c r="H15" s="154"/>
-      <c r="I15" s="154"/>
-      <c r="J15" s="154"/>
-      <c r="K15" s="154"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
       <c r="L15" s="25"/>
       <c r="M15" s="26"/>
-      <c r="N15" s="154"/>
-      <c r="O15" s="154"/>
-      <c r="P15" s="154"/>
-      <c r="Q15" s="154"/>
-      <c r="R15" s="154"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
       <c r="S15" s="25"/>
       <c r="T15" s="26"/>
       <c r="U15" s="26"/>
@@ -4178,8 +4188,8 @@
       <c r="AG15" s="25"/>
       <c r="AH15" s="26"/>
       <c r="AI15" s="24"/>
-      <c r="AJ15" s="164"/>
-      <c r="AK15" s="175"/>
+      <c r="AJ15" s="74"/>
+      <c r="AK15" s="85"/>
       <c r="AL15" s="24"/>
       <c r="AM15" s="24"/>
       <c r="AN15" s="25"/>
@@ -4208,19 +4218,19 @@
       <c r="BK15" s="24"/>
       <c r="BL15" s="24"/>
       <c r="BM15" s="24"/>
-      <c r="BN15" s="164"/>
+      <c r="BN15" s="74"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="130">
+      <c r="A16" s="158">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="109" t="s">
+      <c r="C16" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="110"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="129"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="162"/>
+      <c r="F16" s="157"/>
       <c r="G16" s="51"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -4228,11 +4238,11 @@
       <c r="K16" s="7"/>
       <c r="L16" s="13"/>
       <c r="M16" s="19"/>
-      <c r="N16" s="153"/>
-      <c r="O16" s="153"/>
-      <c r="P16" s="153"/>
-      <c r="Q16" s="153"/>
-      <c r="R16" s="153"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="63"/>
       <c r="S16" s="13"/>
       <c r="T16" s="19"/>
       <c r="U16" s="19"/>
@@ -4250,8 +4260,8 @@
       <c r="AG16" s="13"/>
       <c r="AH16" s="19"/>
       <c r="AI16" s="7"/>
-      <c r="AJ16" s="163"/>
-      <c r="AK16" s="174"/>
+      <c r="AJ16" s="73"/>
+      <c r="AK16" s="84"/>
       <c r="AL16" s="7"/>
       <c r="AM16" s="7"/>
       <c r="AN16" s="13"/>
@@ -4280,15 +4290,15 @@
       <c r="BK16" s="7"/>
       <c r="BL16" s="7"/>
       <c r="BM16" s="7"/>
-      <c r="BN16" s="163"/>
+      <c r="BN16" s="73"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="130"/>
+      <c r="A17" s="158"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="107"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="151"/>
+      <c r="F17" s="153"/>
       <c r="G17" s="52"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -4296,11 +4306,11 @@
       <c r="K17" s="24"/>
       <c r="L17" s="25"/>
       <c r="M17" s="26"/>
-      <c r="N17" s="154"/>
-      <c r="O17" s="154"/>
-      <c r="P17" s="154"/>
-      <c r="Q17" s="154"/>
-      <c r="R17" s="154"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="64"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="64"/>
+      <c r="R17" s="64"/>
       <c r="S17" s="25"/>
       <c r="T17" s="26"/>
       <c r="U17" s="26"/>
@@ -4318,8 +4328,8 @@
       <c r="AG17" s="25"/>
       <c r="AH17" s="26"/>
       <c r="AI17" s="24"/>
-      <c r="AJ17" s="164"/>
-      <c r="AK17" s="175"/>
+      <c r="AJ17" s="74"/>
+      <c r="AK17" s="85"/>
       <c r="AL17" s="24"/>
       <c r="AM17" s="24"/>
       <c r="AN17" s="25"/>
@@ -4348,19 +4358,19 @@
       <c r="BK17" s="24"/>
       <c r="BL17" s="24"/>
       <c r="BM17" s="24"/>
-      <c r="BN17" s="164"/>
+      <c r="BN17" s="74"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="130">
+      <c r="A18" s="158">
         <v>8</v>
       </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="109" t="s">
+      <c r="C18" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="110"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="129"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="162"/>
+      <c r="F18" s="157"/>
       <c r="G18" s="52"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -4368,67 +4378,67 @@
       <c r="K18" s="24"/>
       <c r="L18" s="25"/>
       <c r="M18" s="26"/>
-      <c r="N18" s="154"/>
-      <c r="O18" s="154"/>
-      <c r="P18" s="154"/>
-      <c r="Q18" s="154"/>
-      <c r="R18" s="154"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="64"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="64"/>
+      <c r="R18" s="64"/>
       <c r="S18" s="25"/>
       <c r="T18" s="26"/>
       <c r="U18" s="26"/>
-      <c r="V18" s="154"/>
-      <c r="W18" s="154"/>
-      <c r="X18" s="154"/>
-      <c r="Y18" s="154"/>
+      <c r="V18" s="64"/>
+      <c r="W18" s="64"/>
+      <c r="X18" s="64"/>
+      <c r="Y18" s="64"/>
       <c r="Z18" s="25"/>
       <c r="AA18" s="26"/>
       <c r="AB18" s="26"/>
-      <c r="AC18" s="154"/>
-      <c r="AD18" s="154"/>
-      <c r="AE18" s="154"/>
-      <c r="AF18" s="154"/>
+      <c r="AC18" s="64"/>
+      <c r="AD18" s="64"/>
+      <c r="AE18" s="64"/>
+      <c r="AF18" s="64"/>
       <c r="AG18" s="25"/>
       <c r="AH18" s="26"/>
-      <c r="AI18" s="154"/>
-      <c r="AJ18" s="167"/>
-      <c r="AK18" s="178"/>
-      <c r="AL18" s="154"/>
-      <c r="AM18" s="154"/>
+      <c r="AI18" s="64"/>
+      <c r="AJ18" s="77"/>
+      <c r="AK18" s="88"/>
+      <c r="AL18" s="64"/>
+      <c r="AM18" s="64"/>
       <c r="AN18" s="25"/>
       <c r="AO18" s="26"/>
-      <c r="AP18" s="154"/>
-      <c r="AQ18" s="154"/>
-      <c r="AR18" s="154"/>
-      <c r="AS18" s="154"/>
-      <c r="AT18" s="154"/>
+      <c r="AP18" s="64"/>
+      <c r="AQ18" s="64"/>
+      <c r="AR18" s="64"/>
+      <c r="AS18" s="64"/>
+      <c r="AT18" s="64"/>
       <c r="AU18" s="25"/>
       <c r="AV18" s="26"/>
       <c r="AW18" s="26"/>
-      <c r="AX18" s="154"/>
-      <c r="AY18" s="154"/>
-      <c r="AZ18" s="154"/>
-      <c r="BA18" s="154"/>
+      <c r="AX18" s="64"/>
+      <c r="AY18" s="64"/>
+      <c r="AZ18" s="64"/>
+      <c r="BA18" s="64"/>
       <c r="BB18" s="25"/>
       <c r="BC18" s="26"/>
-      <c r="BD18" s="154"/>
-      <c r="BE18" s="154"/>
-      <c r="BF18" s="154"/>
-      <c r="BG18" s="154"/>
-      <c r="BH18" s="154"/>
+      <c r="BD18" s="64"/>
+      <c r="BE18" s="64"/>
+      <c r="BF18" s="64"/>
+      <c r="BG18" s="64"/>
+      <c r="BH18" s="64"/>
       <c r="BI18" s="25"/>
       <c r="BJ18" s="26"/>
-      <c r="BK18" s="154"/>
-      <c r="BL18" s="154"/>
-      <c r="BM18" s="154"/>
-      <c r="BN18" s="167"/>
+      <c r="BK18" s="64"/>
+      <c r="BL18" s="64"/>
+      <c r="BM18" s="64"/>
+      <c r="BN18" s="77"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="130"/>
+      <c r="A19" s="158"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="111"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="125"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="144"/>
       <c r="G19" s="54"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -4436,73 +4446,73 @@
       <c r="K19" s="8"/>
       <c r="L19" s="17"/>
       <c r="M19" s="23"/>
-      <c r="N19" s="158"/>
-      <c r="O19" s="158"/>
-      <c r="P19" s="158"/>
-      <c r="Q19" s="158"/>
-      <c r="R19" s="158"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="68"/>
+      <c r="Q19" s="68"/>
+      <c r="R19" s="68"/>
       <c r="S19" s="17"/>
       <c r="T19" s="23"/>
       <c r="U19" s="23"/>
-      <c r="V19" s="158"/>
-      <c r="W19" s="158"/>
-      <c r="X19" s="158"/>
-      <c r="Y19" s="158"/>
+      <c r="V19" s="68"/>
+      <c r="W19" s="68"/>
+      <c r="X19" s="68"/>
+      <c r="Y19" s="68"/>
       <c r="Z19" s="17"/>
       <c r="AA19" s="23"/>
       <c r="AB19" s="23"/>
-      <c r="AC19" s="158"/>
-      <c r="AD19" s="158"/>
-      <c r="AE19" s="158"/>
-      <c r="AF19" s="158"/>
+      <c r="AC19" s="68"/>
+      <c r="AD19" s="68"/>
+      <c r="AE19" s="68"/>
+      <c r="AF19" s="68"/>
       <c r="AG19" s="17"/>
       <c r="AH19" s="23"/>
-      <c r="AI19" s="158"/>
-      <c r="AJ19" s="168"/>
-      <c r="AK19" s="179"/>
-      <c r="AL19" s="158"/>
-      <c r="AM19" s="158"/>
+      <c r="AI19" s="68"/>
+      <c r="AJ19" s="78"/>
+      <c r="AK19" s="89"/>
+      <c r="AL19" s="68"/>
+      <c r="AM19" s="68"/>
       <c r="AN19" s="17"/>
       <c r="AO19" s="23"/>
-      <c r="AP19" s="158"/>
-      <c r="AQ19" s="158"/>
-      <c r="AR19" s="158"/>
-      <c r="AS19" s="158"/>
-      <c r="AT19" s="158"/>
+      <c r="AP19" s="68"/>
+      <c r="AQ19" s="68"/>
+      <c r="AR19" s="68"/>
+      <c r="AS19" s="68"/>
+      <c r="AT19" s="68"/>
       <c r="AU19" s="17"/>
       <c r="AV19" s="23"/>
       <c r="AW19" s="23"/>
-      <c r="AX19" s="158"/>
-      <c r="AY19" s="158"/>
-      <c r="AZ19" s="158"/>
-      <c r="BA19" s="158"/>
+      <c r="AX19" s="68"/>
+      <c r="AY19" s="68"/>
+      <c r="AZ19" s="68"/>
+      <c r="BA19" s="68"/>
       <c r="BB19" s="17"/>
       <c r="BC19" s="23"/>
-      <c r="BD19" s="158"/>
-      <c r="BE19" s="158"/>
-      <c r="BF19" s="158"/>
-      <c r="BG19" s="158"/>
-      <c r="BH19" s="158"/>
+      <c r="BD19" s="68"/>
+      <c r="BE19" s="68"/>
+      <c r="BF19" s="68"/>
+      <c r="BG19" s="68"/>
+      <c r="BH19" s="68"/>
       <c r="BI19" s="17"/>
       <c r="BJ19" s="23"/>
-      <c r="BK19" s="158"/>
-      <c r="BL19" s="158"/>
-      <c r="BM19" s="158"/>
-      <c r="BN19" s="168"/>
+      <c r="BK19" s="68"/>
+      <c r="BL19" s="68"/>
+      <c r="BM19" s="68"/>
+      <c r="BN19" s="78"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="117">
+      <c r="A20" s="135">
         <v>9</v>
       </c>
       <c r="B20" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="131" t="s">
+      <c r="C20" s="159" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="132"/>
-      <c r="E20" s="133"/>
-      <c r="F20" s="124"/>
+      <c r="D20" s="160"/>
+      <c r="E20" s="161"/>
+      <c r="F20" s="143"/>
       <c r="G20" s="38"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -4510,69 +4520,69 @@
       <c r="K20" s="6"/>
       <c r="L20" s="15"/>
       <c r="M20" s="21"/>
-      <c r="N20" s="155"/>
-      <c r="O20" s="155"/>
-      <c r="P20" s="155"/>
-      <c r="Q20" s="155"/>
-      <c r="R20" s="155"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="65"/>
       <c r="S20" s="15"/>
       <c r="T20" s="21"/>
       <c r="U20" s="21"/>
-      <c r="V20" s="155"/>
-      <c r="W20" s="155"/>
-      <c r="X20" s="155"/>
-      <c r="Y20" s="155"/>
+      <c r="V20" s="65"/>
+      <c r="W20" s="65"/>
+      <c r="X20" s="65"/>
+      <c r="Y20" s="65"/>
       <c r="Z20" s="15"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="21"/>
-      <c r="AC20" s="155"/>
-      <c r="AD20" s="155"/>
-      <c r="AE20" s="155"/>
-      <c r="AF20" s="155"/>
+      <c r="AC20" s="65"/>
+      <c r="AD20" s="65"/>
+      <c r="AE20" s="65"/>
+      <c r="AF20" s="65"/>
       <c r="AG20" s="15"/>
       <c r="AH20" s="21"/>
-      <c r="AI20" s="155"/>
-      <c r="AJ20" s="169"/>
-      <c r="AK20" s="180"/>
-      <c r="AL20" s="155"/>
-      <c r="AM20" s="155"/>
+      <c r="AI20" s="65"/>
+      <c r="AJ20" s="79"/>
+      <c r="AK20" s="90"/>
+      <c r="AL20" s="65"/>
+      <c r="AM20" s="65"/>
       <c r="AN20" s="15"/>
       <c r="AO20" s="21"/>
-      <c r="AP20" s="155"/>
-      <c r="AQ20" s="155"/>
-      <c r="AR20" s="155"/>
-      <c r="AS20" s="155"/>
-      <c r="AT20" s="155"/>
+      <c r="AP20" s="65"/>
+      <c r="AQ20" s="65"/>
+      <c r="AR20" s="65"/>
+      <c r="AS20" s="65"/>
+      <c r="AT20" s="65"/>
       <c r="AU20" s="15"/>
       <c r="AV20" s="21"/>
       <c r="AW20" s="21"/>
-      <c r="AX20" s="155"/>
-      <c r="AY20" s="155"/>
-      <c r="AZ20" s="155"/>
-      <c r="BA20" s="155"/>
+      <c r="AX20" s="65"/>
+      <c r="AY20" s="65"/>
+      <c r="AZ20" s="65"/>
+      <c r="BA20" s="65"/>
       <c r="BB20" s="15"/>
       <c r="BC20" s="21"/>
-      <c r="BD20" s="155"/>
-      <c r="BE20" s="155"/>
-      <c r="BF20" s="155"/>
-      <c r="BG20" s="155"/>
-      <c r="BH20" s="155"/>
+      <c r="BD20" s="65"/>
+      <c r="BE20" s="65"/>
+      <c r="BF20" s="65"/>
+      <c r="BG20" s="65"/>
+      <c r="BH20" s="65"/>
       <c r="BI20" s="15"/>
       <c r="BJ20" s="21"/>
-      <c r="BK20" s="155"/>
-      <c r="BL20" s="155"/>
-      <c r="BM20" s="155"/>
-      <c r="BN20" s="169"/>
+      <c r="BK20" s="65"/>
+      <c r="BL20" s="65"/>
+      <c r="BM20" s="65"/>
+      <c r="BN20" s="79"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="89"/>
+      <c r="A21" s="136"/>
       <c r="B21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="94"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="107"/>
+      <c r="C21" s="129"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="151"/>
+      <c r="F21" s="153"/>
       <c r="G21" s="51"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -4580,71 +4590,71 @@
       <c r="K21" s="7"/>
       <c r="L21" s="13"/>
       <c r="M21" s="19"/>
-      <c r="N21" s="153"/>
-      <c r="O21" s="153"/>
-      <c r="P21" s="153"/>
-      <c r="Q21" s="153"/>
-      <c r="R21" s="153"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="63"/>
       <c r="S21" s="13"/>
       <c r="T21" s="19"/>
       <c r="U21" s="19"/>
-      <c r="V21" s="153"/>
-      <c r="W21" s="153"/>
-      <c r="X21" s="153"/>
-      <c r="Y21" s="153"/>
+      <c r="V21" s="63"/>
+      <c r="W21" s="63"/>
+      <c r="X21" s="63"/>
+      <c r="Y21" s="63"/>
       <c r="Z21" s="13"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="19"/>
-      <c r="AC21" s="153"/>
-      <c r="AD21" s="153"/>
-      <c r="AE21" s="153"/>
-      <c r="AF21" s="153"/>
+      <c r="AC21" s="63"/>
+      <c r="AD21" s="63"/>
+      <c r="AE21" s="63"/>
+      <c r="AF21" s="63"/>
       <c r="AG21" s="13"/>
       <c r="AH21" s="19"/>
-      <c r="AI21" s="153"/>
-      <c r="AJ21" s="170"/>
-      <c r="AK21" s="181"/>
-      <c r="AL21" s="153"/>
-      <c r="AM21" s="153"/>
+      <c r="AI21" s="63"/>
+      <c r="AJ21" s="80"/>
+      <c r="AK21" s="91"/>
+      <c r="AL21" s="63"/>
+      <c r="AM21" s="63"/>
       <c r="AN21" s="13"/>
       <c r="AO21" s="19"/>
-      <c r="AP21" s="153"/>
-      <c r="AQ21" s="153"/>
-      <c r="AR21" s="153"/>
-      <c r="AS21" s="153"/>
-      <c r="AT21" s="153"/>
+      <c r="AP21" s="63"/>
+      <c r="AQ21" s="63"/>
+      <c r="AR21" s="63"/>
+      <c r="AS21" s="63"/>
+      <c r="AT21" s="63"/>
       <c r="AU21" s="13"/>
       <c r="AV21" s="19"/>
       <c r="AW21" s="19"/>
-      <c r="AX21" s="153"/>
-      <c r="AY21" s="153"/>
-      <c r="AZ21" s="153"/>
-      <c r="BA21" s="153"/>
+      <c r="AX21" s="63"/>
+      <c r="AY21" s="63"/>
+      <c r="AZ21" s="63"/>
+      <c r="BA21" s="63"/>
       <c r="BB21" s="13"/>
       <c r="BC21" s="19"/>
-      <c r="BD21" s="153"/>
-      <c r="BE21" s="153"/>
-      <c r="BF21" s="153"/>
-      <c r="BG21" s="153"/>
-      <c r="BH21" s="153"/>
+      <c r="BD21" s="63"/>
+      <c r="BE21" s="63"/>
+      <c r="BF21" s="63"/>
+      <c r="BG21" s="63"/>
+      <c r="BH21" s="63"/>
       <c r="BI21" s="13"/>
       <c r="BJ21" s="19"/>
-      <c r="BK21" s="153"/>
-      <c r="BL21" s="153"/>
-      <c r="BM21" s="153"/>
-      <c r="BN21" s="170"/>
+      <c r="BK21" s="63"/>
+      <c r="BL21" s="63"/>
+      <c r="BM21" s="63"/>
+      <c r="BN21" s="80"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="117">
+      <c r="A22" s="135">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="143" t="s">
+      <c r="C22" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="110"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="129"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="162"/>
+      <c r="F22" s="157"/>
       <c r="G22" s="51"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -4652,67 +4662,67 @@
       <c r="K22" s="7"/>
       <c r="L22" s="13"/>
       <c r="M22" s="19"/>
-      <c r="N22" s="153"/>
-      <c r="O22" s="153"/>
-      <c r="P22" s="153"/>
-      <c r="Q22" s="153"/>
-      <c r="R22" s="153"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="63"/>
+      <c r="Q22" s="63"/>
+      <c r="R22" s="63"/>
       <c r="S22" s="13"/>
       <c r="T22" s="19"/>
       <c r="U22" s="19"/>
-      <c r="V22" s="153"/>
-      <c r="W22" s="153"/>
-      <c r="X22" s="153"/>
-      <c r="Y22" s="153"/>
+      <c r="V22" s="63"/>
+      <c r="W22" s="63"/>
+      <c r="X22" s="63"/>
+      <c r="Y22" s="63"/>
       <c r="Z22" s="13"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="19"/>
-      <c r="AC22" s="153"/>
-      <c r="AD22" s="153"/>
-      <c r="AE22" s="153"/>
-      <c r="AF22" s="153"/>
+      <c r="AC22" s="63"/>
+      <c r="AD22" s="63"/>
+      <c r="AE22" s="63"/>
+      <c r="AF22" s="63"/>
       <c r="AG22" s="13"/>
       <c r="AH22" s="19"/>
-      <c r="AI22" s="153"/>
-      <c r="AJ22" s="170"/>
-      <c r="AK22" s="181"/>
-      <c r="AL22" s="153"/>
-      <c r="AM22" s="153"/>
+      <c r="AI22" s="63"/>
+      <c r="AJ22" s="80"/>
+      <c r="AK22" s="91"/>
+      <c r="AL22" s="63"/>
+      <c r="AM22" s="63"/>
       <c r="AN22" s="13"/>
       <c r="AO22" s="19"/>
-      <c r="AP22" s="153"/>
-      <c r="AQ22" s="153"/>
-      <c r="AR22" s="153"/>
-      <c r="AS22" s="153"/>
-      <c r="AT22" s="153"/>
+      <c r="AP22" s="63"/>
+      <c r="AQ22" s="63"/>
+      <c r="AR22" s="63"/>
+      <c r="AS22" s="63"/>
+      <c r="AT22" s="63"/>
       <c r="AU22" s="13"/>
       <c r="AV22" s="19"/>
       <c r="AW22" s="19"/>
-      <c r="AX22" s="153"/>
-      <c r="AY22" s="153"/>
-      <c r="AZ22" s="153"/>
-      <c r="BA22" s="153"/>
+      <c r="AX22" s="63"/>
+      <c r="AY22" s="63"/>
+      <c r="AZ22" s="63"/>
+      <c r="BA22" s="63"/>
       <c r="BB22" s="13"/>
       <c r="BC22" s="19"/>
-      <c r="BD22" s="153"/>
-      <c r="BE22" s="153"/>
-      <c r="BF22" s="153"/>
-      <c r="BG22" s="153"/>
-      <c r="BH22" s="153"/>
+      <c r="BD22" s="63"/>
+      <c r="BE22" s="63"/>
+      <c r="BF22" s="63"/>
+      <c r="BG22" s="63"/>
+      <c r="BH22" s="63"/>
       <c r="BI22" s="13"/>
       <c r="BJ22" s="19"/>
-      <c r="BK22" s="153"/>
-      <c r="BL22" s="153"/>
-      <c r="BM22" s="153"/>
-      <c r="BN22" s="170"/>
+      <c r="BK22" s="63"/>
+      <c r="BL22" s="63"/>
+      <c r="BM22" s="63"/>
+      <c r="BN22" s="80"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="89"/>
+      <c r="A23" s="136"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="94"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="107"/>
+      <c r="C23" s="129"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="151"/>
+      <c r="F23" s="153"/>
       <c r="G23" s="51"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -4720,71 +4730,71 @@
       <c r="K23" s="7"/>
       <c r="L23" s="13"/>
       <c r="M23" s="19"/>
-      <c r="N23" s="153"/>
-      <c r="O23" s="153"/>
-      <c r="P23" s="153"/>
-      <c r="Q23" s="153"/>
-      <c r="R23" s="153"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="63"/>
+      <c r="R23" s="63"/>
       <c r="S23" s="13"/>
       <c r="T23" s="19"/>
       <c r="U23" s="19"/>
-      <c r="V23" s="153"/>
-      <c r="W23" s="153"/>
-      <c r="X23" s="153"/>
-      <c r="Y23" s="153"/>
+      <c r="V23" s="63"/>
+      <c r="W23" s="63"/>
+      <c r="X23" s="63"/>
+      <c r="Y23" s="63"/>
       <c r="Z23" s="13"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="19"/>
-      <c r="AC23" s="153"/>
-      <c r="AD23" s="153"/>
-      <c r="AE23" s="153"/>
-      <c r="AF23" s="153"/>
+      <c r="AC23" s="63"/>
+      <c r="AD23" s="63"/>
+      <c r="AE23" s="63"/>
+      <c r="AF23" s="63"/>
       <c r="AG23" s="13"/>
       <c r="AH23" s="19"/>
-      <c r="AI23" s="153"/>
-      <c r="AJ23" s="170"/>
-      <c r="AK23" s="181"/>
-      <c r="AL23" s="153"/>
-      <c r="AM23" s="153"/>
+      <c r="AI23" s="63"/>
+      <c r="AJ23" s="80"/>
+      <c r="AK23" s="91"/>
+      <c r="AL23" s="63"/>
+      <c r="AM23" s="63"/>
       <c r="AN23" s="13"/>
       <c r="AO23" s="19"/>
-      <c r="AP23" s="153"/>
-      <c r="AQ23" s="153"/>
-      <c r="AR23" s="153"/>
-      <c r="AS23" s="153"/>
-      <c r="AT23" s="153"/>
+      <c r="AP23" s="63"/>
+      <c r="AQ23" s="63"/>
+      <c r="AR23" s="63"/>
+      <c r="AS23" s="63"/>
+      <c r="AT23" s="63"/>
       <c r="AU23" s="13"/>
       <c r="AV23" s="19"/>
       <c r="AW23" s="19"/>
-      <c r="AX23" s="153"/>
-      <c r="AY23" s="153"/>
-      <c r="AZ23" s="153"/>
-      <c r="BA23" s="153"/>
+      <c r="AX23" s="63"/>
+      <c r="AY23" s="63"/>
+      <c r="AZ23" s="63"/>
+      <c r="BA23" s="63"/>
       <c r="BB23" s="13"/>
       <c r="BC23" s="19"/>
-      <c r="BD23" s="153"/>
-      <c r="BE23" s="153"/>
-      <c r="BF23" s="153"/>
-      <c r="BG23" s="153"/>
-      <c r="BH23" s="153"/>
+      <c r="BD23" s="63"/>
+      <c r="BE23" s="63"/>
+      <c r="BF23" s="63"/>
+      <c r="BG23" s="63"/>
+      <c r="BH23" s="63"/>
       <c r="BI23" s="13"/>
       <c r="BJ23" s="19"/>
-      <c r="BK23" s="153"/>
-      <c r="BL23" s="153"/>
-      <c r="BM23" s="153"/>
-      <c r="BN23" s="170"/>
+      <c r="BK23" s="63"/>
+      <c r="BL23" s="63"/>
+      <c r="BM23" s="63"/>
+      <c r="BN23" s="80"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="117">
+      <c r="A24" s="135">
         <v>11</v>
       </c>
       <c r="B24" s="36"/>
-      <c r="C24" s="143" t="s">
+      <c r="C24" s="163" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="110"/>
-      <c r="E24" s="134"/>
-      <c r="F24" s="129"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="162"/>
+      <c r="F24" s="157"/>
       <c r="G24" s="52"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -4792,67 +4802,67 @@
       <c r="K24" s="24"/>
       <c r="L24" s="25"/>
       <c r="M24" s="26"/>
-      <c r="N24" s="154"/>
-      <c r="O24" s="154"/>
-      <c r="P24" s="154"/>
-      <c r="Q24" s="154"/>
-      <c r="R24" s="154"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="64"/>
+      <c r="Q24" s="64"/>
+      <c r="R24" s="64"/>
       <c r="S24" s="25"/>
       <c r="T24" s="26"/>
       <c r="U24" s="26"/>
-      <c r="V24" s="154"/>
-      <c r="W24" s="154"/>
-      <c r="X24" s="154"/>
-      <c r="Y24" s="154"/>
+      <c r="V24" s="64"/>
+      <c r="W24" s="64"/>
+      <c r="X24" s="64"/>
+      <c r="Y24" s="64"/>
       <c r="Z24" s="25"/>
       <c r="AA24" s="26"/>
       <c r="AB24" s="26"/>
-      <c r="AC24" s="154"/>
-      <c r="AD24" s="154"/>
-      <c r="AE24" s="154"/>
-      <c r="AF24" s="154"/>
+      <c r="AC24" s="64"/>
+      <c r="AD24" s="64"/>
+      <c r="AE24" s="64"/>
+      <c r="AF24" s="64"/>
       <c r="AG24" s="25"/>
       <c r="AH24" s="26"/>
-      <c r="AI24" s="154"/>
-      <c r="AJ24" s="167"/>
-      <c r="AK24" s="178"/>
-      <c r="AL24" s="154"/>
-      <c r="AM24" s="154"/>
+      <c r="AI24" s="64"/>
+      <c r="AJ24" s="77"/>
+      <c r="AK24" s="88"/>
+      <c r="AL24" s="64"/>
+      <c r="AM24" s="64"/>
       <c r="AN24" s="25"/>
       <c r="AO24" s="26"/>
-      <c r="AP24" s="154"/>
-      <c r="AQ24" s="154"/>
-      <c r="AR24" s="154"/>
-      <c r="AS24" s="154"/>
-      <c r="AT24" s="154"/>
+      <c r="AP24" s="64"/>
+      <c r="AQ24" s="64"/>
+      <c r="AR24" s="64"/>
+      <c r="AS24" s="64"/>
+      <c r="AT24" s="64"/>
       <c r="AU24" s="25"/>
       <c r="AV24" s="26"/>
       <c r="AW24" s="26"/>
-      <c r="AX24" s="154"/>
-      <c r="AY24" s="154"/>
-      <c r="AZ24" s="154"/>
-      <c r="BA24" s="154"/>
+      <c r="AX24" s="64"/>
+      <c r="AY24" s="64"/>
+      <c r="AZ24" s="64"/>
+      <c r="BA24" s="64"/>
       <c r="BB24" s="25"/>
       <c r="BC24" s="26"/>
-      <c r="BD24" s="154"/>
-      <c r="BE24" s="154"/>
-      <c r="BF24" s="154"/>
-      <c r="BG24" s="154"/>
-      <c r="BH24" s="154"/>
+      <c r="BD24" s="64"/>
+      <c r="BE24" s="64"/>
+      <c r="BF24" s="64"/>
+      <c r="BG24" s="64"/>
+      <c r="BH24" s="64"/>
       <c r="BI24" s="25"/>
       <c r="BJ24" s="26"/>
-      <c r="BK24" s="154"/>
-      <c r="BL24" s="154"/>
-      <c r="BM24" s="154"/>
-      <c r="BN24" s="167"/>
+      <c r="BK24" s="64"/>
+      <c r="BL24" s="64"/>
+      <c r="BM24" s="64"/>
+      <c r="BN24" s="77"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="89"/>
+      <c r="A25" s="136"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="94"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="125"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="130"/>
+      <c r="E25" s="151"/>
+      <c r="F25" s="144"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -4860,73 +4870,73 @@
       <c r="K25" s="8"/>
       <c r="L25" s="17"/>
       <c r="M25" s="23"/>
-      <c r="N25" s="158"/>
-      <c r="O25" s="158"/>
-      <c r="P25" s="158"/>
-      <c r="Q25" s="158"/>
-      <c r="R25" s="158"/>
+      <c r="N25" s="68"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="68"/>
+      <c r="Q25" s="68"/>
+      <c r="R25" s="68"/>
       <c r="S25" s="17"/>
       <c r="T25" s="23"/>
       <c r="U25" s="23"/>
-      <c r="V25" s="158"/>
-      <c r="W25" s="158"/>
-      <c r="X25" s="158"/>
-      <c r="Y25" s="158"/>
+      <c r="V25" s="68"/>
+      <c r="W25" s="68"/>
+      <c r="X25" s="68"/>
+      <c r="Y25" s="68"/>
       <c r="Z25" s="17"/>
       <c r="AA25" s="23"/>
       <c r="AB25" s="23"/>
-      <c r="AC25" s="158"/>
-      <c r="AD25" s="158"/>
-      <c r="AE25" s="158"/>
-      <c r="AF25" s="158"/>
+      <c r="AC25" s="68"/>
+      <c r="AD25" s="68"/>
+      <c r="AE25" s="68"/>
+      <c r="AF25" s="68"/>
       <c r="AG25" s="17"/>
       <c r="AH25" s="23"/>
-      <c r="AI25" s="158"/>
-      <c r="AJ25" s="168"/>
-      <c r="AK25" s="179"/>
-      <c r="AL25" s="158"/>
-      <c r="AM25" s="158"/>
+      <c r="AI25" s="68"/>
+      <c r="AJ25" s="78"/>
+      <c r="AK25" s="89"/>
+      <c r="AL25" s="68"/>
+      <c r="AM25" s="68"/>
       <c r="AN25" s="17"/>
       <c r="AO25" s="23"/>
-      <c r="AP25" s="158"/>
-      <c r="AQ25" s="158"/>
-      <c r="AR25" s="158"/>
-      <c r="AS25" s="158"/>
-      <c r="AT25" s="158"/>
+      <c r="AP25" s="68"/>
+      <c r="AQ25" s="68"/>
+      <c r="AR25" s="68"/>
+      <c r="AS25" s="68"/>
+      <c r="AT25" s="68"/>
       <c r="AU25" s="17"/>
       <c r="AV25" s="23"/>
       <c r="AW25" s="23"/>
-      <c r="AX25" s="158"/>
-      <c r="AY25" s="158"/>
-      <c r="AZ25" s="158"/>
-      <c r="BA25" s="158"/>
+      <c r="AX25" s="68"/>
+      <c r="AY25" s="68"/>
+      <c r="AZ25" s="68"/>
+      <c r="BA25" s="68"/>
       <c r="BB25" s="17"/>
       <c r="BC25" s="23"/>
-      <c r="BD25" s="158"/>
-      <c r="BE25" s="158"/>
-      <c r="BF25" s="158"/>
-      <c r="BG25" s="158"/>
-      <c r="BH25" s="158"/>
+      <c r="BD25" s="68"/>
+      <c r="BE25" s="68"/>
+      <c r="BF25" s="68"/>
+      <c r="BG25" s="68"/>
+      <c r="BH25" s="68"/>
       <c r="BI25" s="17"/>
       <c r="BJ25" s="23"/>
-      <c r="BK25" s="158"/>
-      <c r="BL25" s="158"/>
-      <c r="BM25" s="158"/>
-      <c r="BN25" s="168"/>
+      <c r="BK25" s="68"/>
+      <c r="BL25" s="68"/>
+      <c r="BM25" s="68"/>
+      <c r="BN25" s="78"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="108">
+      <c r="A26" s="116">
         <v>12</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="135" t="s">
+      <c r="C26" s="164" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="136"/>
-      <c r="E26" s="139"/>
-      <c r="F26" s="141"/>
+      <c r="D26" s="165"/>
+      <c r="E26" s="168"/>
+      <c r="F26" s="170"/>
       <c r="G26" s="38"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -4934,67 +4944,67 @@
       <c r="K26" s="6"/>
       <c r="L26" s="15"/>
       <c r="M26" s="21"/>
-      <c r="N26" s="155"/>
-      <c r="O26" s="155"/>
-      <c r="P26" s="155"/>
-      <c r="Q26" s="155"/>
-      <c r="R26" s="155"/>
+      <c r="N26" s="65"/>
+      <c r="O26" s="65"/>
+      <c r="P26" s="65"/>
+      <c r="Q26" s="65"/>
+      <c r="R26" s="65"/>
       <c r="S26" s="15"/>
       <c r="T26" s="21"/>
       <c r="U26" s="21"/>
-      <c r="V26" s="155"/>
-      <c r="W26" s="155"/>
-      <c r="X26" s="155"/>
-      <c r="Y26" s="155"/>
+      <c r="V26" s="65"/>
+      <c r="W26" s="65"/>
+      <c r="X26" s="65"/>
+      <c r="Y26" s="65"/>
       <c r="Z26" s="15"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="21"/>
-      <c r="AC26" s="155"/>
-      <c r="AD26" s="155"/>
-      <c r="AE26" s="155"/>
-      <c r="AF26" s="155"/>
+      <c r="AC26" s="65"/>
+      <c r="AD26" s="65"/>
+      <c r="AE26" s="65"/>
+      <c r="AF26" s="65"/>
       <c r="AG26" s="15"/>
       <c r="AH26" s="21"/>
-      <c r="AI26" s="155"/>
-      <c r="AJ26" s="169"/>
-      <c r="AK26" s="180"/>
-      <c r="AL26" s="155"/>
-      <c r="AM26" s="155"/>
+      <c r="AI26" s="65"/>
+      <c r="AJ26" s="79"/>
+      <c r="AK26" s="90"/>
+      <c r="AL26" s="65"/>
+      <c r="AM26" s="65"/>
       <c r="AN26" s="15"/>
       <c r="AO26" s="21"/>
-      <c r="AP26" s="155"/>
-      <c r="AQ26" s="155"/>
-      <c r="AR26" s="155"/>
-      <c r="AS26" s="155"/>
-      <c r="AT26" s="155"/>
+      <c r="AP26" s="65"/>
+      <c r="AQ26" s="65"/>
+      <c r="AR26" s="65"/>
+      <c r="AS26" s="65"/>
+      <c r="AT26" s="65"/>
       <c r="AU26" s="15"/>
       <c r="AV26" s="21"/>
       <c r="AW26" s="21"/>
-      <c r="AX26" s="155"/>
-      <c r="AY26" s="155"/>
-      <c r="AZ26" s="155"/>
-      <c r="BA26" s="155"/>
+      <c r="AX26" s="65"/>
+      <c r="AY26" s="65"/>
+      <c r="AZ26" s="65"/>
+      <c r="BA26" s="65"/>
       <c r="BB26" s="15"/>
       <c r="BC26" s="21"/>
-      <c r="BD26" s="155"/>
-      <c r="BE26" s="155"/>
-      <c r="BF26" s="155"/>
-      <c r="BG26" s="155"/>
-      <c r="BH26" s="155"/>
+      <c r="BD26" s="65"/>
+      <c r="BE26" s="65"/>
+      <c r="BF26" s="65"/>
+      <c r="BG26" s="65"/>
+      <c r="BH26" s="65"/>
       <c r="BI26" s="15"/>
       <c r="BJ26" s="21"/>
-      <c r="BK26" s="155"/>
-      <c r="BL26" s="155"/>
-      <c r="BM26" s="155"/>
-      <c r="BN26" s="169"/>
+      <c r="BK26" s="65"/>
+      <c r="BL26" s="65"/>
+      <c r="BM26" s="65"/>
+      <c r="BN26" s="79"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="91"/>
+      <c r="A27" s="117"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="137"/>
-      <c r="D27" s="138"/>
-      <c r="E27" s="140"/>
-      <c r="F27" s="142"/>
+      <c r="C27" s="166"/>
+      <c r="D27" s="167"/>
+      <c r="E27" s="169"/>
+      <c r="F27" s="171"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -5002,73 +5012,73 @@
       <c r="K27" s="7"/>
       <c r="L27" s="13"/>
       <c r="M27" s="19"/>
-      <c r="N27" s="153"/>
-      <c r="O27" s="153"/>
-      <c r="P27" s="153"/>
-      <c r="Q27" s="153"/>
-      <c r="R27" s="153"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="63"/>
+      <c r="Q27" s="63"/>
+      <c r="R27" s="63"/>
       <c r="S27" s="13"/>
       <c r="T27" s="19"/>
       <c r="U27" s="19"/>
-      <c r="V27" s="153"/>
-      <c r="W27" s="153"/>
-      <c r="X27" s="153"/>
-      <c r="Y27" s="153"/>
+      <c r="V27" s="63"/>
+      <c r="W27" s="63"/>
+      <c r="X27" s="63"/>
+      <c r="Y27" s="63"/>
       <c r="Z27" s="13"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="19"/>
-      <c r="AC27" s="153"/>
-      <c r="AD27" s="153"/>
-      <c r="AE27" s="153"/>
-      <c r="AF27" s="153"/>
+      <c r="AC27" s="63"/>
+      <c r="AD27" s="63"/>
+      <c r="AE27" s="63"/>
+      <c r="AF27" s="63"/>
       <c r="AG27" s="13"/>
       <c r="AH27" s="19"/>
-      <c r="AI27" s="153"/>
-      <c r="AJ27" s="170"/>
-      <c r="AK27" s="181"/>
-      <c r="AL27" s="153"/>
-      <c r="AM27" s="153"/>
+      <c r="AI27" s="63"/>
+      <c r="AJ27" s="80"/>
+      <c r="AK27" s="91"/>
+      <c r="AL27" s="63"/>
+      <c r="AM27" s="63"/>
       <c r="AN27" s="13"/>
       <c r="AO27" s="19"/>
-      <c r="AP27" s="153"/>
-      <c r="AQ27" s="153"/>
-      <c r="AR27" s="153"/>
-      <c r="AS27" s="153"/>
-      <c r="AT27" s="153"/>
+      <c r="AP27" s="63"/>
+      <c r="AQ27" s="63"/>
+      <c r="AR27" s="63"/>
+      <c r="AS27" s="63"/>
+      <c r="AT27" s="63"/>
       <c r="AU27" s="13"/>
       <c r="AV27" s="19"/>
       <c r="AW27" s="19"/>
-      <c r="AX27" s="153"/>
-      <c r="AY27" s="153"/>
-      <c r="AZ27" s="153"/>
-      <c r="BA27" s="153"/>
+      <c r="AX27" s="63"/>
+      <c r="AY27" s="63"/>
+      <c r="AZ27" s="63"/>
+      <c r="BA27" s="63"/>
       <c r="BB27" s="13"/>
       <c r="BC27" s="19"/>
-      <c r="BD27" s="153"/>
-      <c r="BE27" s="153"/>
-      <c r="BF27" s="153"/>
-      <c r="BG27" s="153"/>
-      <c r="BH27" s="153"/>
+      <c r="BD27" s="63"/>
+      <c r="BE27" s="63"/>
+      <c r="BF27" s="63"/>
+      <c r="BG27" s="63"/>
+      <c r="BH27" s="63"/>
       <c r="BI27" s="13"/>
       <c r="BJ27" s="19"/>
-      <c r="BK27" s="153"/>
-      <c r="BL27" s="153"/>
-      <c r="BM27" s="153"/>
-      <c r="BN27" s="170"/>
+      <c r="BK27" s="63"/>
+      <c r="BL27" s="63"/>
+      <c r="BM27" s="63"/>
+      <c r="BN27" s="80"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="108">
+      <c r="A28" s="116">
         <v>14</v>
       </c>
-      <c r="B28" s="145" t="s">
+      <c r="B28" s="173" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="131" t="s">
+      <c r="C28" s="159" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="132"/>
-      <c r="E28" s="145"/>
-      <c r="F28" s="149"/>
+      <c r="D28" s="160"/>
+      <c r="E28" s="173"/>
+      <c r="F28" s="177"/>
       <c r="G28" s="38"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -5084,59 +5094,59 @@
       <c r="S28" s="15"/>
       <c r="T28" s="21"/>
       <c r="U28" s="21"/>
-      <c r="V28" s="155"/>
-      <c r="W28" s="155"/>
-      <c r="X28" s="155"/>
-      <c r="Y28" s="155"/>
+      <c r="V28" s="65"/>
+      <c r="W28" s="65"/>
+      <c r="X28" s="65"/>
+      <c r="Y28" s="65"/>
       <c r="Z28" s="15"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="21"/>
-      <c r="AC28" s="155"/>
-      <c r="AD28" s="155"/>
-      <c r="AE28" s="155"/>
-      <c r="AF28" s="155"/>
+      <c r="AC28" s="65"/>
+      <c r="AD28" s="65"/>
+      <c r="AE28" s="65"/>
+      <c r="AF28" s="65"/>
       <c r="AG28" s="15"/>
       <c r="AH28" s="21"/>
-      <c r="AI28" s="155"/>
-      <c r="AJ28" s="169"/>
-      <c r="AK28" s="180"/>
-      <c r="AL28" s="155"/>
-      <c r="AM28" s="155"/>
+      <c r="AI28" s="65"/>
+      <c r="AJ28" s="79"/>
+      <c r="AK28" s="90"/>
+      <c r="AL28" s="65"/>
+      <c r="AM28" s="65"/>
       <c r="AN28" s="15"/>
       <c r="AO28" s="21"/>
-      <c r="AP28" s="155"/>
-      <c r="AQ28" s="155"/>
-      <c r="AR28" s="155"/>
-      <c r="AS28" s="155"/>
-      <c r="AT28" s="155"/>
+      <c r="AP28" s="65"/>
+      <c r="AQ28" s="65"/>
+      <c r="AR28" s="65"/>
+      <c r="AS28" s="65"/>
+      <c r="AT28" s="65"/>
       <c r="AU28" s="15"/>
       <c r="AV28" s="21"/>
       <c r="AW28" s="21"/>
-      <c r="AX28" s="155"/>
-      <c r="AY28" s="155"/>
-      <c r="AZ28" s="155"/>
-      <c r="BA28" s="155"/>
+      <c r="AX28" s="65"/>
+      <c r="AY28" s="65"/>
+      <c r="AZ28" s="65"/>
+      <c r="BA28" s="65"/>
       <c r="BB28" s="15"/>
       <c r="BC28" s="21"/>
-      <c r="BD28" s="155"/>
-      <c r="BE28" s="155"/>
-      <c r="BF28" s="155"/>
-      <c r="BG28" s="155"/>
-      <c r="BH28" s="155"/>
+      <c r="BD28" s="65"/>
+      <c r="BE28" s="65"/>
+      <c r="BF28" s="65"/>
+      <c r="BG28" s="65"/>
+      <c r="BH28" s="65"/>
       <c r="BI28" s="15"/>
       <c r="BJ28" s="21"/>
-      <c r="BK28" s="155"/>
-      <c r="BL28" s="155"/>
-      <c r="BM28" s="155"/>
-      <c r="BN28" s="169"/>
+      <c r="BK28" s="65"/>
+      <c r="BL28" s="65"/>
+      <c r="BM28" s="65"/>
+      <c r="BN28" s="79"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="144"/>
-      <c r="B29" s="146"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="148"/>
-      <c r="E29" s="146"/>
-      <c r="F29" s="150"/>
+      <c r="A29" s="172"/>
+      <c r="B29" s="174"/>
+      <c r="C29" s="175"/>
+      <c r="D29" s="176"/>
+      <c r="E29" s="174"/>
+      <c r="F29" s="178"/>
       <c r="G29" s="39"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -5152,51 +5162,51 @@
       <c r="S29" s="14"/>
       <c r="T29" s="20"/>
       <c r="U29" s="20"/>
-      <c r="V29" s="159"/>
-      <c r="W29" s="159"/>
-      <c r="X29" s="159"/>
-      <c r="Y29" s="159"/>
+      <c r="V29" s="69"/>
+      <c r="W29" s="69"/>
+      <c r="X29" s="69"/>
+      <c r="Y29" s="69"/>
       <c r="Z29" s="14"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="20"/>
-      <c r="AC29" s="159"/>
-      <c r="AD29" s="159"/>
-      <c r="AE29" s="159"/>
-      <c r="AF29" s="159"/>
+      <c r="AC29" s="69"/>
+      <c r="AD29" s="69"/>
+      <c r="AE29" s="69"/>
+      <c r="AF29" s="69"/>
       <c r="AG29" s="14"/>
       <c r="AH29" s="20"/>
-      <c r="AI29" s="159"/>
-      <c r="AJ29" s="171"/>
-      <c r="AK29" s="182"/>
-      <c r="AL29" s="159"/>
-      <c r="AM29" s="159"/>
+      <c r="AI29" s="69"/>
+      <c r="AJ29" s="81"/>
+      <c r="AK29" s="92"/>
+      <c r="AL29" s="69"/>
+      <c r="AM29" s="69"/>
       <c r="AN29" s="14"/>
       <c r="AO29" s="20"/>
-      <c r="AP29" s="159"/>
-      <c r="AQ29" s="159"/>
-      <c r="AR29" s="159"/>
-      <c r="AS29" s="159"/>
-      <c r="AT29" s="159"/>
+      <c r="AP29" s="69"/>
+      <c r="AQ29" s="69"/>
+      <c r="AR29" s="69"/>
+      <c r="AS29" s="69"/>
+      <c r="AT29" s="69"/>
       <c r="AU29" s="14"/>
       <c r="AV29" s="20"/>
       <c r="AW29" s="20"/>
-      <c r="AX29" s="159"/>
-      <c r="AY29" s="159"/>
-      <c r="AZ29" s="159"/>
-      <c r="BA29" s="159"/>
+      <c r="AX29" s="69"/>
+      <c r="AY29" s="69"/>
+      <c r="AZ29" s="69"/>
+      <c r="BA29" s="69"/>
       <c r="BB29" s="14"/>
       <c r="BC29" s="20"/>
-      <c r="BD29" s="159"/>
-      <c r="BE29" s="159"/>
-      <c r="BF29" s="159"/>
-      <c r="BG29" s="159"/>
-      <c r="BH29" s="159"/>
+      <c r="BD29" s="69"/>
+      <c r="BE29" s="69"/>
+      <c r="BF29" s="69"/>
+      <c r="BG29" s="69"/>
+      <c r="BH29" s="69"/>
       <c r="BI29" s="14"/>
       <c r="BJ29" s="20"/>
-      <c r="BK29" s="159"/>
-      <c r="BL29" s="159"/>
-      <c r="BM29" s="159"/>
-      <c r="BN29" s="171"/>
+      <c r="BK29" s="69"/>
+      <c r="BL29" s="69"/>
+      <c r="BM29" s="69"/>
+      <c r="BN29" s="81"/>
     </row>
     <row r="30" spans="1:66">
       <c r="Z30" s="5"/>
@@ -5216,13 +5226,51 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="G1:AJ1"/>
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:D7"/>
     <mergeCell ref="E6:E7"/>
@@ -5231,6 +5279,1221 @@
     <mergeCell ref="C4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+  </mergeCells>
+  <phoneticPr fontId="4"/>
+  <printOptions gridLinesSet="0"/>
+  <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
+  <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"ＭＳ Ｐゴシック,太字"&amp;12開発スケジュール&amp;R&amp;"ＭＳ Ｐゴシック,標準"&amp;8印刷日：&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;"ＭＳ Ｐゴシック,標準"&amp;8- &amp;P -&amp;R&amp;8Copyright © 2014 *** Corporation. All Rights Reserved.</oddFooter>
+  </headerFooter>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="30" max="80" man="1"/>
+  </colBreaks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624DF4ED-FA44-48E9-9005-27B4AB47060E}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AD32"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="AF27" sqref="AF27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" style="3" customWidth="1"/>
+    <col min="7" max="30" width="3.109375" style="3" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="10.5" customHeight="1">
+      <c r="A1" s="98" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="105"/>
+      <c r="E1" s="110" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="113" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="95"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="96"/>
+      <c r="Y1" s="96"/>
+      <c r="Z1" s="96"/>
+      <c r="AA1" s="96"/>
+      <c r="AB1" s="96"/>
+      <c r="AC1" s="96"/>
+      <c r="AD1" s="97"/>
+    </row>
+    <row r="2" spans="1:30" ht="10.5" customHeight="1">
+      <c r="A2" s="99"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="46">
+        <v>22</v>
+      </c>
+      <c r="H2" s="4">
+        <v>23</v>
+      </c>
+      <c r="I2" s="4">
+        <v>24</v>
+      </c>
+      <c r="J2" s="4">
+        <v>25</v>
+      </c>
+      <c r="K2" s="4">
+        <v>26</v>
+      </c>
+      <c r="L2" s="4">
+        <v>27</v>
+      </c>
+      <c r="M2" s="4">
+        <v>28</v>
+      </c>
+      <c r="N2" s="4">
+        <v>29</v>
+      </c>
+      <c r="O2" s="4">
+        <v>30</v>
+      </c>
+      <c r="P2" s="4">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>1</v>
+      </c>
+      <c r="R2" s="4">
+        <v>2</v>
+      </c>
+      <c r="S2" s="4">
+        <v>3</v>
+      </c>
+      <c r="T2" s="4">
+        <v>4</v>
+      </c>
+      <c r="U2" s="4">
+        <v>5</v>
+      </c>
+      <c r="V2" s="4">
+        <v>6</v>
+      </c>
+      <c r="W2" s="4">
+        <v>7</v>
+      </c>
+      <c r="X2" s="4">
+        <v>8</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>9</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>10</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>11</v>
+      </c>
+      <c r="AB2" s="4">
+        <v>12</v>
+      </c>
+      <c r="AC2" s="4">
+        <v>13</v>
+      </c>
+      <c r="AD2" s="47">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
+      <c r="A3" s="100"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="V3" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="W3" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="X3" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y3" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z3" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA3" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB3" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC3" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD3" s="58" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="13.5" customHeight="1">
+      <c r="A4" s="126">
+        <v>1</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="128"/>
+      <c r="E4" s="131" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="133"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="182" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD4" s="179" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="13.5" customHeight="1">
+      <c r="A5" s="117"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="183"/>
+      <c r="AD5" s="180"/>
+    </row>
+    <row r="6" spans="1:30" ht="13.5" customHeight="1">
+      <c r="A6" s="116">
+        <v>2</v>
+      </c>
+      <c r="B6" s="34"/>
+      <c r="C6" s="118" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="119"/>
+      <c r="E6" s="122" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="124"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="183"/>
+      <c r="AD6" s="180"/>
+    </row>
+    <row r="7" spans="1:30" ht="13.5" customHeight="1">
+      <c r="A7" s="117"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="24"/>
+      <c r="AC7" s="183"/>
+      <c r="AD7" s="180"/>
+    </row>
+    <row r="8" spans="1:30" ht="13.5" customHeight="1">
+      <c r="A8" s="135">
+        <v>3</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="137" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="138"/>
+      <c r="E8" s="141" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="143"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="183"/>
+      <c r="AD8" s="180"/>
+    </row>
+    <row r="9" spans="1:30" ht="13.5" customHeight="1">
+      <c r="A9" s="136"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="139"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="144"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="44"/>
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="43"/>
+      <c r="AC9" s="183"/>
+      <c r="AD9" s="180"/>
+    </row>
+    <row r="10" spans="1:30" ht="12" customHeight="1">
+      <c r="A10" s="145">
+        <v>4</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="146" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="147"/>
+      <c r="E10" s="150" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="152"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="183"/>
+      <c r="AD10" s="180"/>
+    </row>
+    <row r="11" spans="1:30" ht="12" customHeight="1">
+      <c r="A11" s="136"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="148"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="151"/>
+      <c r="F11" s="153"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="183"/>
+      <c r="AD11" s="180"/>
+    </row>
+    <row r="12" spans="1:30" ht="12" customHeight="1">
+      <c r="A12" s="135">
+        <v>5</v>
+      </c>
+      <c r="B12" s="36"/>
+      <c r="C12" s="118" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="119"/>
+      <c r="E12" s="156" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="157"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="183"/>
+      <c r="AD12" s="180"/>
+    </row>
+    <row r="13" spans="1:30" ht="12" customHeight="1">
+      <c r="A13" s="145"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="155"/>
+      <c r="E13" s="150"/>
+      <c r="F13" s="152"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="24"/>
+      <c r="AC13" s="183"/>
+      <c r="AD13" s="180"/>
+    </row>
+    <row r="14" spans="1:30" ht="12" customHeight="1">
+      <c r="A14" s="158">
+        <v>6</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="159" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="160"/>
+      <c r="E14" s="161" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="143"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="183"/>
+      <c r="AD14" s="180"/>
+    </row>
+    <row r="15" spans="1:30" ht="12" customHeight="1">
+      <c r="A15" s="158"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="151"/>
+      <c r="F15" s="153"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="24"/>
+      <c r="AC15" s="183"/>
+      <c r="AD15" s="180"/>
+    </row>
+    <row r="16" spans="1:30" ht="12" customHeight="1">
+      <c r="A16" s="158">
+        <v>7</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="C16" s="118" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="119"/>
+      <c r="E16" s="162" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="157"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="19"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="183"/>
+      <c r="AD16" s="180"/>
+    </row>
+    <row r="17" spans="1:30" ht="12" customHeight="1">
+      <c r="A17" s="158"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="151"/>
+      <c r="F17" s="153"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="24"/>
+      <c r="AC17" s="183"/>
+      <c r="AD17" s="180"/>
+    </row>
+    <row r="18" spans="1:30" ht="12" customHeight="1">
+      <c r="A18" s="158">
+        <v>8</v>
+      </c>
+      <c r="B18" s="36"/>
+      <c r="C18" s="118" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="119"/>
+      <c r="E18" s="162" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="157"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="24"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="26"/>
+      <c r="AB18" s="24"/>
+      <c r="AC18" s="183"/>
+      <c r="AD18" s="180"/>
+    </row>
+    <row r="19" spans="1:30" ht="12" customHeight="1">
+      <c r="A19" s="158"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="23"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="183"/>
+      <c r="AD19" s="180"/>
+    </row>
+    <row r="20" spans="1:30" ht="12" customHeight="1">
+      <c r="A20" s="135">
+        <v>9</v>
+      </c>
+      <c r="B20" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="159" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="160"/>
+      <c r="E20" s="161" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="143"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="40"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="21"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="183"/>
+      <c r="AD20" s="180"/>
+    </row>
+    <row r="21" spans="1:30" ht="12" customHeight="1">
+      <c r="A21" s="136"/>
+      <c r="B21" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="129"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="151"/>
+      <c r="F21" s="153"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="19"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="183"/>
+      <c r="AD21" s="180"/>
+    </row>
+    <row r="22" spans="1:30" ht="12" customHeight="1">
+      <c r="A22" s="135">
+        <v>10</v>
+      </c>
+      <c r="B22" s="36"/>
+      <c r="C22" s="163" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="119"/>
+      <c r="E22" s="162" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="157"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="19"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="183"/>
+      <c r="AD22" s="180"/>
+    </row>
+    <row r="23" spans="1:30" ht="12" customHeight="1">
+      <c r="A23" s="136"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="129"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="151"/>
+      <c r="F23" s="153"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="13"/>
+      <c r="AA23" s="19"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="183"/>
+      <c r="AD23" s="180"/>
+    </row>
+    <row r="24" spans="1:30" ht="12" customHeight="1">
+      <c r="A24" s="135">
+        <v>11</v>
+      </c>
+      <c r="B24" s="36"/>
+      <c r="C24" s="163" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="119"/>
+      <c r="E24" s="162" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="157"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="42"/>
+      <c r="W24" s="24"/>
+      <c r="X24" s="24"/>
+      <c r="Y24" s="24"/>
+      <c r="Z24" s="25"/>
+      <c r="AA24" s="26"/>
+      <c r="AB24" s="24"/>
+      <c r="AC24" s="183"/>
+      <c r="AD24" s="180"/>
+    </row>
+    <row r="25" spans="1:30" ht="12" customHeight="1">
+      <c r="A25" s="136"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="130"/>
+      <c r="E25" s="151"/>
+      <c r="F25" s="144"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="17"/>
+      <c r="AA25" s="23"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="183"/>
+      <c r="AD25" s="180"/>
+    </row>
+    <row r="26" spans="1:30" ht="12" customHeight="1">
+      <c r="A26" s="116">
+        <v>12</v>
+      </c>
+      <c r="B26" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="164" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="165"/>
+      <c r="E26" s="168" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="170"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="40"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="21"/>
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="183"/>
+      <c r="AD26" s="180"/>
+    </row>
+    <row r="27" spans="1:30" ht="12" customHeight="1">
+      <c r="A27" s="117"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="166"/>
+      <c r="D27" s="167"/>
+      <c r="E27" s="169"/>
+      <c r="F27" s="171"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="13"/>
+      <c r="AA27" s="19"/>
+      <c r="AB27" s="7"/>
+      <c r="AC27" s="183"/>
+      <c r="AD27" s="180"/>
+    </row>
+    <row r="28" spans="1:30" ht="12" customHeight="1">
+      <c r="A28" s="116">
+        <v>14</v>
+      </c>
+      <c r="B28" s="173" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="159" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="160"/>
+      <c r="E28" s="173" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="177"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="40"/>
+      <c r="Z28" s="15"/>
+      <c r="AA28" s="21"/>
+      <c r="AB28" s="40"/>
+      <c r="AC28" s="183"/>
+      <c r="AD28" s="180"/>
+    </row>
+    <row r="29" spans="1:30" ht="12" customHeight="1" thickBot="1">
+      <c r="A29" s="172"/>
+      <c r="B29" s="174"/>
+      <c r="C29" s="175"/>
+      <c r="D29" s="176"/>
+      <c r="E29" s="174"/>
+      <c r="F29" s="178"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="14"/>
+      <c r="AA29" s="20"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="184"/>
+      <c r="AD29" s="181"/>
+    </row>
+    <row r="30" spans="1:30">
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+    </row>
+    <row r="31" spans="1:30">
+      <c r="A31" s="27"/>
+      <c r="B31" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30">
+      <c r="A32" s="28"/>
+      <c r="B32" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="61">
+    <mergeCell ref="G1:AD1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="AD4:AD29"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="AC4:AC29"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C8:D9"/>
     <mergeCell ref="E8:E9"/>
@@ -5290,1257 +6553,4 @@
   </colBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624DF4ED-FA44-48E9-9005-27B4AB47060E}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:AD32"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AF27" sqref="AF27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
-  <cols>
-    <col min="1" max="1" width="3.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="3" customWidth="1"/>
-    <col min="7" max="30" width="3.125" style="3" customWidth="1"/>
-    <col min="31" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A1" s="70" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="73" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="77"/>
-      <c r="E1" s="82" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="61"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="63"/>
-    </row>
-    <row r="2" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="46">
-        <v>22</v>
-      </c>
-      <c r="H2" s="4">
-        <v>23</v>
-      </c>
-      <c r="I2" s="4">
-        <v>24</v>
-      </c>
-      <c r="J2" s="4">
-        <v>25</v>
-      </c>
-      <c r="K2" s="4">
-        <v>26</v>
-      </c>
-      <c r="L2" s="4">
-        <v>27</v>
-      </c>
-      <c r="M2" s="4">
-        <v>28</v>
-      </c>
-      <c r="N2" s="4">
-        <v>29</v>
-      </c>
-      <c r="O2" s="4">
-        <v>30</v>
-      </c>
-      <c r="P2" s="4">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>1</v>
-      </c>
-      <c r="R2" s="4">
-        <v>2</v>
-      </c>
-      <c r="S2" s="4">
-        <v>3</v>
-      </c>
-      <c r="T2" s="4">
-        <v>4</v>
-      </c>
-      <c r="U2" s="4">
-        <v>5</v>
-      </c>
-      <c r="V2" s="4">
-        <v>6</v>
-      </c>
-      <c r="W2" s="4">
-        <v>7</v>
-      </c>
-      <c r="X2" s="4">
-        <v>8</v>
-      </c>
-      <c r="Y2" s="4">
-        <v>9</v>
-      </c>
-      <c r="Z2" s="4">
-        <v>10</v>
-      </c>
-      <c r="AA2" s="4">
-        <v>11</v>
-      </c>
-      <c r="AB2" s="4">
-        <v>12</v>
-      </c>
-      <c r="AC2" s="4">
-        <v>13</v>
-      </c>
-      <c r="AD2" s="47">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="72"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="R3" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="T3" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="U3" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="V3" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="W3" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="X3" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y3" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z3" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA3" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB3" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC3" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD3" s="58" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A4" s="90">
-        <v>1</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="92" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="93"/>
-      <c r="E4" s="96" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="98"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD4" s="67" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A5" s="91"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="65"/>
-      <c r="AD5" s="68"/>
-    </row>
-    <row r="6" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A6" s="108">
-        <v>2</v>
-      </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="109" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="115"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="65"/>
-      <c r="AD6" s="68"/>
-    </row>
-    <row r="7" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A7" s="91"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="26"/>
-      <c r="AB7" s="24"/>
-      <c r="AC7" s="65"/>
-      <c r="AD7" s="68"/>
-    </row>
-    <row r="8" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A8" s="117">
-        <v>3</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="118" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="119"/>
-      <c r="E8" s="122" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="124"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="21"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="65"/>
-      <c r="AD8" s="68"/>
-    </row>
-    <row r="9" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A9" s="89"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="43"/>
-      <c r="W9" s="43"/>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="43"/>
-      <c r="Z9" s="44"/>
-      <c r="AA9" s="45"/>
-      <c r="AB9" s="43"/>
-      <c r="AC9" s="65"/>
-      <c r="AD9" s="68"/>
-    </row>
-    <row r="10" spans="1:30" ht="12" customHeight="1">
-      <c r="A10" s="88">
-        <v>4</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="100" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="101"/>
-      <c r="E10" s="104" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="106"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="65"/>
-      <c r="AD10" s="68"/>
-    </row>
-    <row r="11" spans="1:30" ht="12" customHeight="1">
-      <c r="A11" s="89"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="9"/>
-      <c r="AC11" s="65"/>
-      <c r="AD11" s="68"/>
-    </row>
-    <row r="12" spans="1:30" ht="12" customHeight="1">
-      <c r="A12" s="117">
-        <v>5</v>
-      </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="109" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="110"/>
-      <c r="E12" s="128" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="129"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="65"/>
-      <c r="AD12" s="68"/>
-    </row>
-    <row r="13" spans="1:30" ht="12" customHeight="1">
-      <c r="A13" s="88"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="25"/>
-      <c r="AA13" s="26"/>
-      <c r="AB13" s="24"/>
-      <c r="AC13" s="65"/>
-      <c r="AD13" s="68"/>
-    </row>
-    <row r="14" spans="1:30" ht="12" customHeight="1">
-      <c r="A14" s="130">
-        <v>6</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="131" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="132"/>
-      <c r="E14" s="133" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="124"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="21"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="65"/>
-      <c r="AD14" s="68"/>
-    </row>
-    <row r="15" spans="1:30" ht="12" customHeight="1">
-      <c r="A15" s="130"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="24"/>
-      <c r="Z15" s="25"/>
-      <c r="AA15" s="26"/>
-      <c r="AB15" s="24"/>
-      <c r="AC15" s="65"/>
-      <c r="AD15" s="68"/>
-    </row>
-    <row r="16" spans="1:30" ht="12" customHeight="1">
-      <c r="A16" s="130">
-        <v>7</v>
-      </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="109" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="110"/>
-      <c r="E16" s="134" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="129"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="19"/>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="65"/>
-      <c r="AD16" s="68"/>
-    </row>
-    <row r="17" spans="1:30" ht="12" customHeight="1">
-      <c r="A17" s="130"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="24"/>
-      <c r="Z17" s="25"/>
-      <c r="AA17" s="26"/>
-      <c r="AB17" s="24"/>
-      <c r="AC17" s="65"/>
-      <c r="AD17" s="68"/>
-    </row>
-    <row r="18" spans="1:30" ht="12" customHeight="1">
-      <c r="A18" s="130">
-        <v>8</v>
-      </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="109" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="110"/>
-      <c r="E18" s="134" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="129"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="24"/>
-      <c r="Z18" s="25"/>
-      <c r="AA18" s="26"/>
-      <c r="AB18" s="24"/>
-      <c r="AC18" s="65"/>
-      <c r="AD18" s="68"/>
-    </row>
-    <row r="19" spans="1:30" ht="12" customHeight="1">
-      <c r="A19" s="130"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="111"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="125"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="17"/>
-      <c r="AA19" s="23"/>
-      <c r="AB19" s="8"/>
-      <c r="AC19" s="65"/>
-      <c r="AD19" s="68"/>
-    </row>
-    <row r="20" spans="1:30" ht="12" customHeight="1">
-      <c r="A20" s="117">
-        <v>9</v>
-      </c>
-      <c r="B20" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="131" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="132"/>
-      <c r="E20" s="133" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="124"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="40"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="15"/>
-      <c r="AA20" s="21"/>
-      <c r="AB20" s="6"/>
-      <c r="AC20" s="65"/>
-      <c r="AD20" s="68"/>
-    </row>
-    <row r="21" spans="1:30" ht="12" customHeight="1">
-      <c r="A21" s="89"/>
-      <c r="B21" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="94"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="13"/>
-      <c r="AA21" s="19"/>
-      <c r="AB21" s="7"/>
-      <c r="AC21" s="65"/>
-      <c r="AD21" s="68"/>
-    </row>
-    <row r="22" spans="1:30" ht="12" customHeight="1">
-      <c r="A22" s="117">
-        <v>10</v>
-      </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="143" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="110"/>
-      <c r="E22" s="134" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="129"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="30"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="19"/>
-      <c r="AB22" s="7"/>
-      <c r="AC22" s="65"/>
-      <c r="AD22" s="68"/>
-    </row>
-    <row r="23" spans="1:30" ht="12" customHeight="1">
-      <c r="A23" s="89"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="94"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="13"/>
-      <c r="AA23" s="19"/>
-      <c r="AB23" s="7"/>
-      <c r="AC23" s="65"/>
-      <c r="AD23" s="68"/>
-    </row>
-    <row r="24" spans="1:30" ht="12" customHeight="1">
-      <c r="A24" s="117">
-        <v>11</v>
-      </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="143" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="110"/>
-      <c r="E24" s="134" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" s="129"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="42"/>
-      <c r="V24" s="42"/>
-      <c r="W24" s="24"/>
-      <c r="X24" s="24"/>
-      <c r="Y24" s="24"/>
-      <c r="Z24" s="25"/>
-      <c r="AA24" s="26"/>
-      <c r="AB24" s="24"/>
-      <c r="AC24" s="65"/>
-      <c r="AD24" s="68"/>
-    </row>
-    <row r="25" spans="1:30" ht="12" customHeight="1">
-      <c r="A25" s="89"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="94"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="125"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
-      <c r="X25" s="8"/>
-      <c r="Y25" s="8"/>
-      <c r="Z25" s="17"/>
-      <c r="AA25" s="23"/>
-      <c r="AB25" s="8"/>
-      <c r="AC25" s="65"/>
-      <c r="AD25" s="68"/>
-    </row>
-    <row r="26" spans="1:30" ht="12" customHeight="1">
-      <c r="A26" s="108">
-        <v>12</v>
-      </c>
-      <c r="B26" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="135" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="136"/>
-      <c r="E26" s="139" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="141"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="40"/>
-      <c r="X26" s="40"/>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="15"/>
-      <c r="AA26" s="21"/>
-      <c r="AB26" s="6"/>
-      <c r="AC26" s="65"/>
-      <c r="AD26" s="68"/>
-    </row>
-    <row r="27" spans="1:30" ht="12" customHeight="1">
-      <c r="A27" s="91"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="137"/>
-      <c r="D27" s="138"/>
-      <c r="E27" s="140"/>
-      <c r="F27" s="142"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="7"/>
-      <c r="Y27" s="7"/>
-      <c r="Z27" s="13"/>
-      <c r="AA27" s="19"/>
-      <c r="AB27" s="7"/>
-      <c r="AC27" s="65"/>
-      <c r="AD27" s="68"/>
-    </row>
-    <row r="28" spans="1:30" ht="12" customHeight="1">
-      <c r="A28" s="108">
-        <v>14</v>
-      </c>
-      <c r="B28" s="145" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="131" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="132"/>
-      <c r="E28" s="145" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" s="149"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="40"/>
-      <c r="Z28" s="15"/>
-      <c r="AA28" s="21"/>
-      <c r="AB28" s="40"/>
-      <c r="AC28" s="65"/>
-      <c r="AD28" s="68"/>
-    </row>
-    <row r="29" spans="1:30" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="144"/>
-      <c r="B29" s="146"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="148"/>
-      <c r="E29" s="146"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="11"/>
-      <c r="X29" s="11"/>
-      <c r="Y29" s="11"/>
-      <c r="Z29" s="14"/>
-      <c r="AA29" s="20"/>
-      <c r="AB29" s="11"/>
-      <c r="AC29" s="66"/>
-      <c r="AD29" s="69"/>
-    </row>
-    <row r="30" spans="1:30">
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
-    </row>
-    <row r="31" spans="1:30">
-      <c r="A31" s="27"/>
-      <c r="B31" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30">
-      <c r="A32" s="28"/>
-      <c r="B32" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="AD4:AD29"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="AC4:AC29"/>
-    <mergeCell ref="G1:AD1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-  </mergeCells>
-  <phoneticPr fontId="4"/>
-  <printOptions gridLinesSet="0"/>
-  <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;"ＭＳ Ｐゴシック,太字"&amp;12開発スケジュール&amp;R&amp;"ＭＳ Ｐゴシック,標準"&amp;8印刷日：&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;"ＭＳ Ｐゴシック,標準"&amp;8- &amp;P -&amp;R&amp;8Copyright © 2014 *** Corporation. All Rights Reserved.</oddFooter>
-  </headerFooter>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="30" max="80" man="1"/>
-  </colBreaks>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>